--- a/input.xlsx
+++ b/input.xlsx
@@ -1,151 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-comment</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>的批注啊</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>a1</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>a1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>Comment: 作者:
+comment的批注啊a1
+ by 作者</t>
   </si>
   <si>
     <t>a2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b2</t>
+  </si>
+  <si>
+    <t>c2</t>
   </si>
   <si>
     <t>a3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b3</t>
+  </si>
+  <si>
+    <t>c3</t>
   </si>
   <si>
     <t>a4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b4</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>c5</t>
   </si>
   <si>
     <t>a6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>b6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>c5</t>
   </si>
   <si>
     <t>c6</t>
@@ -155,46 +80,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -210,25 +108,20 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -511,113 +404,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
+      <c r="A4" t="s"/>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s"/>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s"/>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s"/>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s"/>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>